--- a/user_data.xlsx
+++ b/user_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,27 +446,37 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1.1</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Username</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Followers</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Follows</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>About User</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Phone Number</t>
         </is>
       </c>
     </row>
@@ -480,25 +490,44 @@
       <c r="C2" t="n">
         <v>0</v>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>nina_raw_5</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>279</v>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>byfranco.rest</t>
+        </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>153k</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
-        <v>110</v>
+          <t>252</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1,600</t>
+        </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>publicidad</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>ALITAS BBQ y PIZZAS
+Restaurante
+By Franco Resto-Bar
+Todos los días de 13:00H hasta las 23:00H
+📍Cdla El Cóndor detrás del RioCentro
+📲 Pedidos al 0989776890 o
+Whatsapp Directo ⬇️
+acortar.link/gdwgti</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0989776890 - </t>
         </is>
       </c>
     </row>
@@ -509,31 +538,45 @@
       <c r="B3" t="n">
         <v>1</v>
       </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>giotaki_doul</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>344</v>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>losmandingosdesauces6</t>
+        </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2,392</t>
+          <t>186</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1,339</t>
+          <t>3,408</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>𝙋𝙖𝙣𝙖𝙜𝙞𝙤𝙩𝙖 🧿
-🔸sᴏᴄɪᴀʟ ᴘᴏʟɪᴄʏ🎓
-🔸𝟸𝟶𝟶ʜ ʀʏᴛ ʏᴏɢᴀ (ʏᴏɢᴀ ɪɴsᴛʀᴜᴄᴛᴏʀ)
-🔸@mad_store</t>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Hotdogsauces
+Emprendedor(a)
+Todo lo que puedas imaginar en hot dogs 🔥😁🌭🍟🍍🥑🌽🧀🥓😋 Guayaquil (Sauces 6)
+Jueves a Martes desde las 5pm hasta las 11pm
+Uber eats 📳Rappi📳
+api.whatsapp.com/send?phone=593978875570</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">593978875570 - </t>
         </is>
       </c>
     </row>
@@ -541,36 +584,387 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>by.evaaa</t>
-        </is>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>burgerpizza.ec</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7,092</t>
+          <t>90</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>416</t>
+          <t>1,406</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>𝕰𝘃𝖊𝖑𝖎𝖓𝖆
-Artista
-@e_vchik ✨💗
-f3.cool/Evaaa22/?hl=ru</t>
-        </is>
-      </c>
+          <t>187</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Burger Pizza
+Emprendedor(a)
+🔥Abiertos Lun. Mar. Jue. Vie. Sab. Dom de 6:00pm a 11:00pm🔥
+📍Guayaquil - Ecuador
+📲 +593 96 330 6983
+SERVICIO DELIVERY
+wa.me/message/JDF325ECHXYGJ1</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">+593 96 330 6983 - </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>pollo.pelucon</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>760</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Asaderos El Pollo Pelucon
+Restaurante
+Pollos a la brasa Con Sabor De Casa
+Asados y mucho más
+Pedidos: 0985144994- 2701190
+Via Samborondon KM. 12 Avenida Principal Junto a la Urb. Cataluña
+goo.gl/maps/Zp1S8BecjeCzfPWZ7</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0985144994 - 2701190 - </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>pizzalta</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2,369</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>18.6k</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>3,274</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Pizza Alta -Urdesa
+De lunes a jueves de 17h00 a 22h00.
+Viernes de 17h00 a 22h30. Sábados de 15h00 a 22h30. Domingos de 15h00 a 21h30.
+Teléfonos: 0982532038 - 6014579
+www.pizzaalta.com</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0982532038 - 6014579 - </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>diegorodriguezmuniz</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Diego Rodríguez Muñiz</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="n">
+        <v>6</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>justinbieber</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6,863</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>210m</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>670</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Justin Bieber
+JUSTICE the album out now
+@drewhouse
+www.inbetweeners.io</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="n">
+        <v>7</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>tomholland2013</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1,198</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>54.9m</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Tom Holland
+Life is good
+livli.com/tom-nwh</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>diegorodriguezmuniz</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Diego Rodríguez Muñiz</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>tomholland2013</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1,198</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>54.9m</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Tom Holland
+Life is good
+livli.com/tom-nwh</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>mia_malkova</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>579</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>10.1m</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>715</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Mia Malkova
+Figura pública
+Tiktok👇🏻
+vm.tiktok.com/ZM8W2e18x</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
